--- a/2017-10-20-count.xlsx
+++ b/2017-10-20-count.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="7">
   <si>
     <t>Rep.</t>
   </si>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU181"/>
+  <dimension ref="A1:AU199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="J171" sqref="J171"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="F199" sqref="F199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4129,6 +4129,366 @@
         <v>0</v>
       </c>
     </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>40</v>
+      </c>
+      <c r="B182" s="1">
+        <v>1</v>
+      </c>
+      <c r="C182" s="1">
+        <v>1</v>
+      </c>
+      <c r="D182" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>40</v>
+      </c>
+      <c r="B183" s="1">
+        <v>1</v>
+      </c>
+      <c r="C183" s="1">
+        <v>2</v>
+      </c>
+      <c r="D183" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>40</v>
+      </c>
+      <c r="B184" s="1">
+        <v>1</v>
+      </c>
+      <c r="C184" s="1">
+        <v>1</v>
+      </c>
+      <c r="D184" s="1">
+        <v>-4</v>
+      </c>
+      <c r="E184" s="1">
+        <v>92</v>
+      </c>
+      <c r="F184" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>40</v>
+      </c>
+      <c r="B185" s="1">
+        <v>1</v>
+      </c>
+      <c r="C185" s="1">
+        <v>2</v>
+      </c>
+      <c r="D185" s="1">
+        <v>-4</v>
+      </c>
+      <c r="E185" s="1">
+        <v>117</v>
+      </c>
+      <c r="F185" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>40</v>
+      </c>
+      <c r="B186" s="1">
+        <v>1</v>
+      </c>
+      <c r="C186" s="1">
+        <v>1</v>
+      </c>
+      <c r="D186" s="1">
+        <v>-5</v>
+      </c>
+      <c r="E186" s="1">
+        <v>21</v>
+      </c>
+      <c r="F186" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>40</v>
+      </c>
+      <c r="B187" s="1">
+        <v>1</v>
+      </c>
+      <c r="C187" s="1">
+        <v>2</v>
+      </c>
+      <c r="D187" s="1">
+        <v>-5</v>
+      </c>
+      <c r="E187" s="1">
+        <v>16</v>
+      </c>
+      <c r="F187" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>40</v>
+      </c>
+      <c r="B188" s="1">
+        <v>2</v>
+      </c>
+      <c r="C188" s="1">
+        <v>1</v>
+      </c>
+      <c r="D188" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F188" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>40</v>
+      </c>
+      <c r="B189" s="1">
+        <v>2</v>
+      </c>
+      <c r="C189" s="1">
+        <v>2</v>
+      </c>
+      <c r="D189" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F189" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>40</v>
+      </c>
+      <c r="B190" s="1">
+        <v>2</v>
+      </c>
+      <c r="C190" s="1">
+        <v>1</v>
+      </c>
+      <c r="D190" s="1">
+        <v>-4</v>
+      </c>
+      <c r="E190" s="1">
+        <v>90</v>
+      </c>
+      <c r="F190" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>40</v>
+      </c>
+      <c r="B191" s="1">
+        <v>2</v>
+      </c>
+      <c r="C191" s="1">
+        <v>2</v>
+      </c>
+      <c r="D191" s="1">
+        <v>-4</v>
+      </c>
+      <c r="E191" s="1">
+        <v>92</v>
+      </c>
+      <c r="F191" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>40</v>
+      </c>
+      <c r="B192" s="1">
+        <v>2</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1</v>
+      </c>
+      <c r="D192" s="1">
+        <v>-5</v>
+      </c>
+      <c r="E192" s="1">
+        <v>19</v>
+      </c>
+      <c r="F192" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>40</v>
+      </c>
+      <c r="B193" s="1">
+        <v>2</v>
+      </c>
+      <c r="C193" s="1">
+        <v>2</v>
+      </c>
+      <c r="D193" s="1">
+        <v>-5</v>
+      </c>
+      <c r="E193" s="1">
+        <v>16</v>
+      </c>
+      <c r="F193" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>40</v>
+      </c>
+      <c r="B194" s="1">
+        <v>3</v>
+      </c>
+      <c r="C194" s="1">
+        <v>1</v>
+      </c>
+      <c r="D194" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>40</v>
+      </c>
+      <c r="B195" s="1">
+        <v>3</v>
+      </c>
+      <c r="C195" s="1">
+        <v>2</v>
+      </c>
+      <c r="D195" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>40</v>
+      </c>
+      <c r="B196" s="1">
+        <v>3</v>
+      </c>
+      <c r="C196" s="1">
+        <v>1</v>
+      </c>
+      <c r="D196" s="1">
+        <v>-4</v>
+      </c>
+      <c r="E196" s="1">
+        <v>14</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>40</v>
+      </c>
+      <c r="B197" s="1">
+        <v>3</v>
+      </c>
+      <c r="C197" s="1">
+        <v>2</v>
+      </c>
+      <c r="D197" s="1">
+        <v>-4</v>
+      </c>
+      <c r="E197" s="1">
+        <v>21</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>40</v>
+      </c>
+      <c r="B198" s="1">
+        <v>3</v>
+      </c>
+      <c r="C198" s="1">
+        <v>1</v>
+      </c>
+      <c r="D198" s="1">
+        <v>-5</v>
+      </c>
+      <c r="E198" s="1">
+        <v>1</v>
+      </c>
+      <c r="F198" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>40</v>
+      </c>
+      <c r="B199" s="1">
+        <v>3</v>
+      </c>
+      <c r="C199" s="1">
+        <v>2</v>
+      </c>
+      <c r="D199" s="1">
+        <v>-5</v>
+      </c>
+      <c r="E199" s="1">
+        <v>2</v>
+      </c>
+      <c r="F199" s="1">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
